--- a/med/excel_files/Protsedury.xlsx
+++ b/med/excel_files/Protsedury.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25128"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1314135\PycharmProjects\kursach3\medical-app\med\excel_files\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4B0962E-7A1A-4B0C-BEE3-C4EAB9EC9BE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="21645" windowHeight="16035"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -366,8 +372,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -482,6 +488,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -773,25 +782,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.85546875" customWidth="1"/>
-    <col min="2" max="2" width="28.140625" customWidth="1"/>
-    <col min="3" max="3" width="35.140625" customWidth="1"/>
-    <col min="4" max="4" width="42.7109375" customWidth="1"/>
-    <col min="5" max="5" width="54.85546875" customWidth="1"/>
-    <col min="6" max="6" width="35.5703125" customWidth="1"/>
-    <col min="9" max="9" width="10.28515625" customWidth="1"/>
+    <col min="1" max="1" width="5.88671875" customWidth="1"/>
+    <col min="2" max="2" width="28.109375" customWidth="1"/>
+    <col min="3" max="3" width="35.109375" customWidth="1"/>
+    <col min="4" max="4" width="42.6640625" customWidth="1"/>
+    <col min="5" max="5" width="54.88671875" customWidth="1"/>
+    <col min="6" max="6" width="35.5546875" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>32</v>
       </c>
@@ -809,7 +818,7 @@
       </c>
       <c r="H1" s="1"/>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -826,7 +835,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -843,7 +852,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -860,7 +869,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -877,7 +886,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -894,7 +903,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -911,7 +920,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -928,7 +937,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -945,7 +954,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -962,7 +971,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -979,7 +988,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>11</v>
       </c>
@@ -996,7 +1005,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>12</v>
       </c>
@@ -1013,7 +1022,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>13</v>
       </c>
@@ -1030,7 +1039,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <v>14</v>
       </c>
@@ -1047,7 +1056,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
         <v>15</v>
       </c>
@@ -1064,7 +1073,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <v>16</v>
       </c>
@@ -1081,7 +1090,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
         <v>17</v>
       </c>
@@ -1098,7 +1107,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
         <v>18</v>
       </c>
@@ -1115,7 +1124,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
         <v>19</v>
       </c>
@@ -1132,7 +1141,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
         <v>20</v>
       </c>
@@ -1149,7 +1158,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <v>21</v>
       </c>
@@ -1166,7 +1175,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="4">
         <v>22</v>
       </c>
@@ -1183,7 +1192,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
         <v>23</v>
       </c>
@@ -1200,7 +1209,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
         <v>24</v>
       </c>
@@ -1217,7 +1226,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="4">
         <v>25</v>
       </c>
@@ -1234,7 +1243,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="4">
         <v>26</v>
       </c>
@@ -1251,7 +1260,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="4">
         <v>27</v>
       </c>
@@ -1268,7 +1277,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="5">
         <v>28</v>
       </c>
@@ -1285,7 +1294,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="5">
         <v>29</v>
       </c>
@@ -1302,7 +1311,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="5">
         <v>30</v>
       </c>
@@ -1319,7 +1328,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="5">
         <v>31</v>
       </c>
